--- a/biology/Botanique/Solanales/Solanales.xlsx
+++ b/biology/Botanique/Solanales/Solanales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Solanales regroupe des plantes dicotylédones.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[1], il comporte huit familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981), il comporte huit familles :
 famille des Convolvulacées (famille du liseron)
 famille des Cuscutacées (famille de la cuscute)
 famille des Duckéodendracées
@@ -522,7 +536,7 @@
 famille des Nolanacées
 famille des Polémoniacées
 famille des Solanacées (famille de la tomate).
-En classification phylogénétique APG (1998)[2], classification phylogénétique APG II (2003)[3] et classification phylogénétique APG III (2009)[4], la circonscription est différente :
+En classification phylogénétique APG (1998), classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009), la circonscription est différente :
 ordre des Solanales Juss. ex Bercht. &amp; J.Presl (1820)
 famille des Convolvulaceae Juss. (1789) (incl. Cuscutaceae)
 famille des Hydroleaceae R.Br. ex Edwards (1821)
@@ -556,7 +570,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Glossaire de botanique</t>
         </is>
